--- a/biology/Botanique/Houlque_molle/Houlque_molle.xlsx
+++ b/biology/Botanique/Houlque_molle/Houlque_molle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holcus mollis
-La Houlque molle (Holcus mollis) est une plante herbacée vivace de la famille des Poacées, sous-famille des Pooideae, tribu des Aveneae, assez commune en Europe, par exemple dans les prairies permanentes et les landes sur sol acide et siliceux. Elle n'est pas cultivée comme fourrage[1] mais parfois comme plante ornementale.
+La Houlque molle (Holcus mollis) est une plante herbacée vivace de la famille des Poacées, sous-famille des Pooideae, tribu des Aveneae, assez commune en Europe, par exemple dans les prairies permanentes et les landes sur sol acide et siliceux. Elle n'est pas cultivée comme fourrage mais parfois comme plante ornementale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Notholcus mollis (L.) Hitchc.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La houlque molle est une espèce vivace par ses rhizomes de 50 cm de long environ.
 Les rhizomes, qui poussent à 5 cm de profondeur, voire plus, se développent durant la saison de végétation, de mai à novembre, mais plus rapidement entre la mi-juin et la mi-juillet.
@@ -551,7 +567,7 @@
 Les feuilles, vert-grisâtre, ont un limbe poilu à la face supérieure. La gaine est fendue et porte une ligule relativement longue (5 mm).
 Elle fleurit de mai à juillet. L'inflorescence est une panicule de couleur gris violet, à consistance molle, portant des épillets biflores.
 Dans une étude sur les adventices des céréales dans le centre-sud de l'Angleterre en 1982, on a constaté la présence de cette plante dans 1 % des orges d'hiver, mais pas du tout dans les blés d'hiver et les orges de printemps.
-Une variante hybride pentaploïde de houlque molle est commune en Grande-Bretagne. Elle est stérile mais se propage facilement par voie de multiplication végétative sur les sols labourés[2].
+Une variante hybride pentaploïde de houlque molle est commune en Grande-Bretagne. Elle est stérile mais se propage facilement par voie de multiplication végétative sur les sols labourés.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire principalement d'Europe, des pays scandinaves jusqu'au Portugal et à la Grèce, et de l'Irlande à l'Ukraine et à la Russie, ainsi que de l'Afrique du Nord (Algérie). On la trouve également dans les îles de l'Atlantique (Madère, Açores).
 Elle s'est naturalisée dans de nombreux pays.
@@ -616,11 +634,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présence dans les prairies
-La houlque molle a une valeur fourragère médiocre et de ce fait n'est pas semée mais peut être très présente  dans les prairies permanentes sur sol siliceux et acide[3].
+          <t>Présence dans les prairies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La houlque molle a une valeur fourragère médiocre et de ce fait n'est pas semée mais peut être très présente  dans les prairies permanentes sur sol siliceux et acide.
 Elle est surtout considérée comme une mauvaise herbe dans les cultures.
-Graminée ornementale
-Le cultivar Holcus mollis albovariegatus, disponible en Europe, offre un feuillage vert argenté strié de blanc. Il est aussi appelé chiendent argenté[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Houlque_molle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Houlque_molle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Graminée ornementale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar Holcus mollis albovariegatus, disponible en Europe, offre un feuillage vert argenté strié de blanc. Il est aussi appelé chiendent argenté.
 </t>
         </is>
       </c>
